--- a/Data/Juveniles/Data/Juve_wax_dipping_2020.xlsx
+++ b/Data/Juveniles/Data/Juve_wax_dipping_2020.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nina/Projects/Moorea Oct 2020/Juveniles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nina Bean\Documents\Projects\Metabolic_scaling\Data\Juveniles\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D395216B-0DDF-344B-BC55-B296FE08738D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85B0473-21D7-407E-8770-F1BDEC04E6FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{A886A91E-9CFC-C440-B829-FD46F2F18F49}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A886A91E-9CFC-C440-B829-FD46F2F18F49}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -154,12 +155,18 @@
   <si>
     <t>missed some first dip</t>
   </si>
+  <si>
+    <t>#Porites max diameter 14-34 mm</t>
+  </si>
+  <si>
+    <t>#Pocillopora max diameter 13-40 mm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -513,19 +520,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF457343-B519-7249-9383-A9A25DDEF2C0}">
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -563,2503 +570,2503 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>58</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>25</v>
-      </c>
-      <c r="E2">
-        <v>21.6</v>
+        <v>6.2</v>
       </c>
       <c r="F2">
-        <v>20.100000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="G2">
-        <v>12.249000000000001</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="H2">
-        <v>12.821</v>
+        <v>0.745</v>
       </c>
       <c r="I2">
-        <v>13.285</v>
+        <v>0.8</v>
       </c>
       <c r="J2">
         <f>H2-G2</f>
-        <v>0.57199999999999918</v>
+        <v>4.3000000000000038E-2</v>
       </c>
       <c r="K2">
         <f>I2-H2</f>
+        <v>5.5000000000000049E-2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>11.3</v>
+      </c>
+      <c r="F3">
+        <v>13.4</v>
+      </c>
+      <c r="G3">
+        <v>2.2450000000000001</v>
+      </c>
+      <c r="H3">
+        <v>2.3730000000000002</v>
+      </c>
+      <c r="I3">
+        <v>2.5219999999999998</v>
+      </c>
+      <c r="J3">
+        <f>H3-G3</f>
+        <v>0.12800000000000011</v>
+      </c>
+      <c r="K3">
+        <f>I3-H3</f>
+        <v>0.14899999999999958</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>39</v>
+      </c>
+      <c r="G4">
+        <v>6.2140000000000004</v>
+      </c>
+      <c r="H4">
+        <v>6.8570000000000002</v>
+      </c>
+      <c r="I4">
+        <v>7.5410000000000004</v>
+      </c>
+      <c r="J4">
+        <f>H4-G4</f>
+        <v>0.64299999999999979</v>
+      </c>
+      <c r="K4">
+        <f>I4-H4</f>
+        <v>0.68400000000000016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>9.8290000000000006</v>
+      </c>
+      <c r="H5">
+        <v>10.346</v>
+      </c>
+      <c r="I5">
+        <v>10.85</v>
+      </c>
+      <c r="J5">
+        <f>H5-G5</f>
+        <v>0.51699999999999946</v>
+      </c>
+      <c r="K5">
+        <f>I5-H5</f>
+        <v>0.50399999999999956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>22.2</v>
+      </c>
+      <c r="F6">
+        <v>34.1</v>
+      </c>
+      <c r="G6">
+        <v>8.9670000000000005</v>
+      </c>
+      <c r="H6">
+        <v>9.7530000000000001</v>
+      </c>
+      <c r="I6">
+        <v>10.638</v>
+      </c>
+      <c r="J6">
+        <f>H6-G6</f>
+        <v>0.78599999999999959</v>
+      </c>
+      <c r="K6">
+        <f>I6-H6</f>
+        <v>0.88499999999999979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>22.2</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>26.234000000000002</v>
+      </c>
+      <c r="H7">
+        <v>27.411999999999999</v>
+      </c>
+      <c r="I7">
+        <v>28.614999999999998</v>
+      </c>
+      <c r="J7">
+        <f>H7-G7</f>
+        <v>1.1779999999999973</v>
+      </c>
+      <c r="K7">
+        <f>I7-H7</f>
+        <v>1.2029999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>11.2</v>
+      </c>
+      <c r="F8">
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="H8">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="I8">
+        <v>2.8740000000000001</v>
+      </c>
+      <c r="J8">
+        <f>H8-G8</f>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="K8">
+        <f>I8-H8</f>
+        <v>0.43599999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>11.3</v>
+      </c>
+      <c r="F9">
+        <v>22.9</v>
+      </c>
+      <c r="G9">
+        <v>2.0110000000000001</v>
+      </c>
+      <c r="H9">
+        <v>2.1960000000000002</v>
+      </c>
+      <c r="I9">
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="J9">
+        <f>H9-G9</f>
+        <v>0.18500000000000005</v>
+      </c>
+      <c r="K9">
+        <f>I9-H9</f>
+        <v>0.25499999999999989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>6.3</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="H10">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="J10">
+        <f>H10-G10</f>
+        <v>3.6000000000000032E-2</v>
+      </c>
+      <c r="K10">
+        <f>I10-H10</f>
+        <v>3.8000000000000034E-2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>42</v>
+      </c>
+      <c r="G11">
+        <v>39.393000000000001</v>
+      </c>
+      <c r="H11">
+        <v>40.441000000000003</v>
+      </c>
+      <c r="I11">
+        <v>41.393999999999998</v>
+      </c>
+      <c r="J11">
+        <f>H11-G11</f>
+        <v>1.0480000000000018</v>
+      </c>
+      <c r="K11">
+        <f>I11-H11</f>
+        <v>0.95299999999999585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>5.5</v>
+      </c>
+      <c r="G12">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="H12">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="I12">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="J12">
+        <f>H12-G12</f>
+        <v>2.6999999999999913E-2</v>
+      </c>
+      <c r="K12">
+        <f>I12-H12</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>21.6</v>
+      </c>
+      <c r="F13">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G13">
+        <v>12.249000000000001</v>
+      </c>
+      <c r="H13">
+        <v>12.821</v>
+      </c>
+      <c r="I13">
+        <v>13.285</v>
+      </c>
+      <c r="J13">
+        <f>H13-G13</f>
+        <v>0.57199999999999918</v>
+      </c>
+      <c r="K13">
+        <f>I13-H13</f>
         <v>0.46400000000000041</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="D14">
         <v>30.4</v>
       </c>
-      <c r="E3">
+      <c r="E14">
         <v>26.1</v>
       </c>
-      <c r="F3">
+      <c r="F14">
         <v>19.8</v>
       </c>
-      <c r="G3">
+      <c r="G14">
         <v>16.119</v>
       </c>
-      <c r="H3">
+      <c r="H14">
         <v>16.716999999999999</v>
       </c>
-      <c r="I3">
+      <c r="I14">
         <v>17.327999999999999</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J34" si="0">H3-G3</f>
+      <c r="J14">
+        <f>H14-G14</f>
         <v>0.59799999999999898</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K66" si="1">I3-H3</f>
+      <c r="K14">
+        <f>I14-H14</f>
         <v>0.61100000000000065</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C15" s="1">
         <v>94</v>
       </c>
-      <c r="D4">
+      <c r="D15">
         <v>35.5</v>
       </c>
-      <c r="E4">
+      <c r="E15">
         <v>31.5</v>
       </c>
-      <c r="F4">
+      <c r="F15">
         <v>25.6</v>
       </c>
-      <c r="G4">
+      <c r="G15">
         <v>16.327999999999999</v>
       </c>
-      <c r="H4">
+      <c r="H15">
         <v>17.567</v>
       </c>
-      <c r="I4">
+      <c r="I15">
         <v>18.629000000000001</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>1.2390000000000008</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>1.0620000000000012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>75</v>
-      </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>23.6</v>
-      </c>
-      <c r="F5">
-        <v>13.5</v>
-      </c>
-      <c r="G5">
-        <v>16.927</v>
-      </c>
-      <c r="H5">
-        <v>17.228999999999999</v>
-      </c>
-      <c r="I5">
-        <v>17.623999999999999</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>0.3019999999999996</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>0.39499999999999957</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>14.1</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>1.873</v>
-      </c>
-      <c r="H6">
-        <v>2.0030000000000001</v>
-      </c>
-      <c r="I6">
-        <v>2.1019999999999999</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>0.13000000000000012</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>9.8999999999999755E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>300</v>
-      </c>
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="E7">
-        <v>35.5</v>
-      </c>
-      <c r="F7">
-        <v>24</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="E8">
-        <v>20.170000000000002</v>
-      </c>
-      <c r="F8">
-        <v>14.5</v>
-      </c>
-      <c r="G8">
-        <v>7.98</v>
-      </c>
-      <c r="H8">
-        <v>8.36</v>
-      </c>
-      <c r="I8">
-        <v>8.641</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0.37999999999999901</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>0.28100000000000058</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>31</v>
-      </c>
-      <c r="D9">
-        <v>28.3</v>
-      </c>
-      <c r="E9">
-        <v>23</v>
-      </c>
-      <c r="F9">
-        <v>23.2</v>
-      </c>
-      <c r="G9">
-        <v>17.664999999999999</v>
-      </c>
-      <c r="H9">
-        <v>18.375</v>
-      </c>
-      <c r="I9">
-        <v>18.959</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0.71000000000000085</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>0.58399999999999963</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>53</v>
-      </c>
-      <c r="D10">
-        <v>27.8</v>
-      </c>
-      <c r="E10">
-        <v>23.1</v>
-      </c>
-      <c r="F10">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="G10">
-        <v>22.259</v>
-      </c>
-      <c r="H10">
-        <v>23.055</v>
-      </c>
-      <c r="I10">
-        <v>23.712</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0.79599999999999937</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>215</v>
-      </c>
-      <c r="D11">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-      <c r="F11">
-        <v>12.5</v>
-      </c>
-      <c r="G11">
-        <v>23.248000000000001</v>
-      </c>
-      <c r="H11">
-        <v>23.890999999999998</v>
-      </c>
-      <c r="I11">
-        <v>24.234000000000002</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>0.64299999999999713</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>0.34300000000000352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>35</v>
-      </c>
-      <c r="D12">
-        <v>22.7</v>
-      </c>
-      <c r="E12">
-        <v>18.8</v>
-      </c>
-      <c r="F12">
-        <v>13.8</v>
-      </c>
-      <c r="G12">
-        <v>12.351000000000001</v>
-      </c>
-      <c r="H12">
-        <v>12.747999999999999</v>
-      </c>
-      <c r="I12">
-        <v>13.065</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>0.39699999999999847</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>0.31700000000000017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>26.1</v>
-      </c>
-      <c r="E13">
-        <v>20.7</v>
-      </c>
-      <c r="F13">
-        <v>13.2</v>
-      </c>
-      <c r="G13">
-        <v>17.117000000000001</v>
-      </c>
-      <c r="H13">
-        <v>17.552</v>
-      </c>
-      <c r="I13">
-        <v>17.962</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>0.43499999999999872</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>0.41000000000000014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>13.2</v>
-      </c>
-      <c r="E14">
-        <v>10.1</v>
-      </c>
-      <c r="F14">
-        <v>3.4</v>
-      </c>
-      <c r="H14">
-        <v>1.171</v>
-      </c>
-      <c r="I14">
-        <v>1.2090000000000001</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>1.171</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>3.8000000000000034E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>209</v>
-      </c>
-      <c r="D15">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="F15">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="G15">
-        <v>9.923</v>
-      </c>
-      <c r="H15">
-        <v>10.365</v>
-      </c>
-      <c r="I15">
-        <v>10.804</v>
       </c>
       <c r="J15">
         <f>H15-G15</f>
-        <v>0.44200000000000017</v>
+        <v>1.2390000000000008</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
-        <v>0.43900000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <f>I15-H15</f>
+        <v>1.0620000000000012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>36</v>
       </c>
       <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>75</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>23.6</v>
+      </c>
+      <c r="F16">
+        <v>13.5</v>
+      </c>
+      <c r="G16">
+        <v>16.927</v>
+      </c>
+      <c r="H16">
+        <v>17.228999999999999</v>
+      </c>
+      <c r="I16">
+        <v>17.623999999999999</v>
+      </c>
+      <c r="J16">
+        <f>H16-G16</f>
+        <v>0.3019999999999996</v>
+      </c>
+      <c r="K16">
+        <f>I16-H16</f>
+        <v>0.39499999999999957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17">
         <v>15</v>
       </c>
-      <c r="C16" s="1">
-        <v>48</v>
-      </c>
-      <c r="D16">
-        <v>28.5</v>
-      </c>
-      <c r="E16">
+      <c r="E17">
+        <v>14.1</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>1.873</v>
+      </c>
+      <c r="H17">
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="I17">
+        <v>2.1019999999999999</v>
+      </c>
+      <c r="J17">
+        <f>H17-G17</f>
+        <v>0.13000000000000012</v>
+      </c>
+      <c r="K17">
+        <f>I17-H17</f>
+        <v>9.8999999999999755E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>300</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>35.5</v>
+      </c>
+      <c r="F18">
+        <v>24</v>
+      </c>
+      <c r="L18" t="s">
         <v>27</v>
       </c>
-      <c r="F16">
-        <v>12.6</v>
-      </c>
-      <c r="G16">
-        <v>15.63</v>
-      </c>
-      <c r="H16">
-        <v>16.513999999999999</v>
-      </c>
-      <c r="I16">
-        <v>16.896000000000001</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>0.88399999999999856</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>0.38200000000000145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>218</v>
-      </c>
-      <c r="D17">
-        <v>18.5</v>
-      </c>
-      <c r="E17">
-        <v>15.5</v>
-      </c>
-      <c r="F17">
-        <v>12.5</v>
-      </c>
-      <c r="G17">
-        <v>3.726</v>
-      </c>
-      <c r="H17">
-        <v>3.9</v>
-      </c>
-      <c r="I17">
-        <v>4.0449999999999999</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>0.17399999999999993</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>0.14500000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1">
-        <v>202</v>
-      </c>
-      <c r="D18">
-        <v>24.1</v>
-      </c>
-      <c r="E18">
-        <v>23.6</v>
-      </c>
-      <c r="F18">
-        <v>19.3</v>
-      </c>
-      <c r="G18">
-        <v>9.8689999999999998</v>
-      </c>
-      <c r="H18">
-        <v>10.250999999999999</v>
-      </c>
-      <c r="I18">
-        <v>10.653</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>0.38199999999999967</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
-        <v>0.40200000000000102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>17.100000000000001</v>
+        <v>20.7</v>
       </c>
       <c r="E19">
-        <v>14.4</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>14.5</v>
       </c>
       <c r="G19">
-        <v>1.093</v>
+        <v>7.98</v>
       </c>
       <c r="H19">
-        <v>1.17</v>
+        <v>8.36</v>
       </c>
       <c r="I19">
-        <v>1.2609999999999999</v>
+        <v>8.641</v>
       </c>
       <c r="J19">
         <f>H19-G19</f>
+        <v>0.37999999999999901</v>
+      </c>
+      <c r="K19">
+        <f>I19-H19</f>
+        <v>0.28100000000000058</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>28.3</v>
+      </c>
+      <c r="E20">
+        <v>23</v>
+      </c>
+      <c r="F20">
+        <v>23.2</v>
+      </c>
+      <c r="G20">
+        <v>17.664999999999999</v>
+      </c>
+      <c r="H20">
+        <v>18.375</v>
+      </c>
+      <c r="I20">
+        <v>18.959</v>
+      </c>
+      <c r="J20">
+        <f>H20-G20</f>
+        <v>0.71000000000000085</v>
+      </c>
+      <c r="K20">
+        <f>I20-H20</f>
+        <v>0.58399999999999963</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>27.8</v>
+      </c>
+      <c r="E21">
+        <v>23.1</v>
+      </c>
+      <c r="F21">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G21">
+        <v>22.259</v>
+      </c>
+      <c r="H21">
+        <v>23.055</v>
+      </c>
+      <c r="I21">
+        <v>23.712</v>
+      </c>
+      <c r="J21">
+        <f>H21-G21</f>
+        <v>0.79599999999999937</v>
+      </c>
+      <c r="K21">
+        <f>I21-H21</f>
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>215</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>12.5</v>
+      </c>
+      <c r="G22">
+        <v>23.248000000000001</v>
+      </c>
+      <c r="H22">
+        <v>23.890999999999998</v>
+      </c>
+      <c r="I22">
+        <v>24.234000000000002</v>
+      </c>
+      <c r="J22">
+        <f>H22-G22</f>
+        <v>0.64299999999999713</v>
+      </c>
+      <c r="K22">
+        <f>I22-H22</f>
+        <v>0.34300000000000352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>22.7</v>
+      </c>
+      <c r="E23">
+        <v>18.8</v>
+      </c>
+      <c r="F23">
+        <v>13.8</v>
+      </c>
+      <c r="G23">
+        <v>12.351000000000001</v>
+      </c>
+      <c r="H23">
+        <v>12.747999999999999</v>
+      </c>
+      <c r="I23">
+        <v>13.065</v>
+      </c>
+      <c r="J23">
+        <f>H23-G23</f>
+        <v>0.39699999999999847</v>
+      </c>
+      <c r="K23">
+        <f>I23-H23</f>
+        <v>0.31700000000000017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>26.1</v>
+      </c>
+      <c r="E24">
+        <v>20.7</v>
+      </c>
+      <c r="F24">
+        <v>13.2</v>
+      </c>
+      <c r="G24">
+        <v>17.117000000000001</v>
+      </c>
+      <c r="H24">
+        <v>17.552</v>
+      </c>
+      <c r="I24">
+        <v>17.962</v>
+      </c>
+      <c r="J24">
+        <f>H24-G24</f>
+        <v>0.43499999999999872</v>
+      </c>
+      <c r="K24">
+        <f>I24-H24</f>
+        <v>0.41000000000000014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>13.2</v>
+      </c>
+      <c r="E25">
+        <v>10.1</v>
+      </c>
+      <c r="F25">
+        <v>3.4</v>
+      </c>
+      <c r="H25">
+        <v>1.171</v>
+      </c>
+      <c r="I25">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="J25">
+        <f>H25-G25</f>
+        <v>1.171</v>
+      </c>
+      <c r="K25">
+        <f>I25-H25</f>
+        <v>3.8000000000000034E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1">
+        <v>209</v>
+      </c>
+      <c r="D26">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F26">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G26">
+        <v>9.923</v>
+      </c>
+      <c r="H26">
+        <v>10.365</v>
+      </c>
+      <c r="I26">
+        <v>10.804</v>
+      </c>
+      <c r="J26">
+        <f>H26-G26</f>
+        <v>0.44200000000000017</v>
+      </c>
+      <c r="K26">
+        <f>I26-H26</f>
+        <v>0.43900000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1">
+        <v>48</v>
+      </c>
+      <c r="D27">
+        <v>28.5</v>
+      </c>
+      <c r="E27">
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <v>12.6</v>
+      </c>
+      <c r="G27">
+        <v>15.63</v>
+      </c>
+      <c r="H27">
+        <v>16.513999999999999</v>
+      </c>
+      <c r="I27">
+        <v>16.896000000000001</v>
+      </c>
+      <c r="J27">
+        <f>H27-G27</f>
+        <v>0.88399999999999856</v>
+      </c>
+      <c r="K27">
+        <f>I27-H27</f>
+        <v>0.38200000000000145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1">
+        <v>218</v>
+      </c>
+      <c r="D28">
+        <v>18.5</v>
+      </c>
+      <c r="E28">
+        <v>15.5</v>
+      </c>
+      <c r="F28">
+        <v>12.5</v>
+      </c>
+      <c r="G28">
+        <v>3.726</v>
+      </c>
+      <c r="H28">
+        <v>3.9</v>
+      </c>
+      <c r="I28">
+        <v>4.0449999999999999</v>
+      </c>
+      <c r="J28">
+        <f>H28-G28</f>
+        <v>0.17399999999999993</v>
+      </c>
+      <c r="K28">
+        <f>I28-H28</f>
+        <v>0.14500000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1">
+        <v>202</v>
+      </c>
+      <c r="D29">
+        <v>24.1</v>
+      </c>
+      <c r="E29">
+        <v>23.6</v>
+      </c>
+      <c r="F29">
+        <v>19.3</v>
+      </c>
+      <c r="G29">
+        <v>9.8689999999999998</v>
+      </c>
+      <c r="H29">
+        <v>10.250999999999999</v>
+      </c>
+      <c r="I29">
+        <v>10.653</v>
+      </c>
+      <c r="J29">
+        <f>H29-G29</f>
+        <v>0.38199999999999967</v>
+      </c>
+      <c r="K29">
+        <f>I29-H29</f>
+        <v>0.40200000000000102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E30">
+        <v>14.4</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>1.093</v>
+      </c>
+      <c r="H30">
+        <v>1.17</v>
+      </c>
+      <c r="I30">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="J30">
+        <f>H30-G30</f>
         <v>7.6999999999999957E-2</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="1"/>
+      <c r="K30">
+        <f>I30-H30</f>
         <v>9.099999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
         <v>19</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C31" s="1">
         <v>217</v>
       </c>
-      <c r="D20">
+      <c r="D31">
         <v>24.2</v>
       </c>
-      <c r="E20">
+      <c r="E31">
         <v>18.2</v>
       </c>
-      <c r="F20">
+      <c r="F31">
         <v>14.3</v>
       </c>
-      <c r="G20">
+      <c r="G31">
         <v>10.007</v>
       </c>
-      <c r="H20">
+      <c r="H31">
         <v>10.278</v>
       </c>
-      <c r="I20">
+      <c r="I31">
         <v>10.57</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
+      <c r="J31">
+        <f>H31-G31</f>
         <v>0.2710000000000008</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="1"/>
+      <c r="K31">
+        <f>I31-H31</f>
         <v>0.29199999999999982</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
         <v>20</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C32" s="1">
         <v>212</v>
       </c>
-      <c r="D21">
+      <c r="D32">
         <v>32.700000000000003</v>
       </c>
-      <c r="E21">
+      <c r="E32">
         <v>32.700000000000003</v>
       </c>
-      <c r="F21">
+      <c r="F32">
         <v>28.1</v>
       </c>
-      <c r="G21">
+      <c r="G32">
         <v>26.797999999999998</v>
       </c>
-      <c r="H21">
+      <c r="H32">
         <v>27.895</v>
       </c>
-      <c r="I21">
+      <c r="I32">
         <v>28.812999999999999</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
+      <c r="J32">
+        <f>H32-G32</f>
         <v>1.0970000000000013</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="1"/>
+      <c r="K32">
+        <f>I32-H32</f>
         <v>0.91799999999999926</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
         <v>21</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C33" s="1">
         <v>70</v>
       </c>
-      <c r="D22">
+      <c r="D33">
         <v>24.3</v>
       </c>
-      <c r="E22">
+      <c r="E33">
         <v>22</v>
       </c>
-      <c r="F22">
+      <c r="F33">
         <v>15.3</v>
       </c>
-      <c r="G22">
+      <c r="G33">
         <v>13.625</v>
       </c>
-      <c r="H22">
+      <c r="H33">
         <v>14.058</v>
       </c>
-      <c r="I22">
+      <c r="I33">
         <v>14.48</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
+      <c r="J33">
+        <f>H33-G33</f>
         <v>0.43299999999999983</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
+      <c r="K33">
+        <f>I33-H33</f>
         <v>0.4220000000000006</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
         <v>22</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C34" s="1">
         <v>91</v>
       </c>
-      <c r="D23">
+      <c r="D34">
         <v>19.600000000000001</v>
       </c>
-      <c r="E23">
+      <c r="E34">
         <v>18</v>
       </c>
-      <c r="F23">
+      <c r="F34">
         <v>11.6</v>
       </c>
-      <c r="G23">
+      <c r="G34">
         <v>8.5920000000000005</v>
       </c>
-      <c r="H23">
+      <c r="H34">
         <v>8.8469999999999995</v>
       </c>
-      <c r="I23">
+      <c r="I34">
         <v>9.0150000000000006</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
+      <c r="J34">
+        <f>H34-G34</f>
         <v>0.25499999999999901</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="1"/>
+      <c r="K34">
+        <f>I34-H34</f>
         <v>0.16800000000000104</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
         <v>23</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C35" s="1">
         <v>62</v>
       </c>
-      <c r="D24">
+      <c r="D35">
         <v>35.4</v>
       </c>
-      <c r="E24">
+      <c r="E35">
         <v>28.8</v>
       </c>
-      <c r="F24">
+      <c r="F35">
         <v>24.5</v>
       </c>
-      <c r="G24">
+      <c r="G35">
         <v>34.869999999999997</v>
       </c>
-      <c r="H24">
+      <c r="H35">
         <v>36.024999999999999</v>
       </c>
-      <c r="I24">
+      <c r="I35">
         <v>37.075000000000003</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
+      <c r="J35">
+        <f>H35-G35</f>
         <v>1.1550000000000011</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
+      <c r="K35">
+        <f>I35-H35</f>
         <v>1.0500000000000043</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
         <v>24</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C36" s="1">
         <v>98</v>
       </c>
-      <c r="D25">
+      <c r="D36">
         <v>36.5</v>
       </c>
-      <c r="E25">
+      <c r="E36">
         <v>35</v>
       </c>
-      <c r="F25">
+      <c r="F36">
         <v>27.2</v>
       </c>
-      <c r="G25">
+      <c r="G36">
         <v>28.164999999999999</v>
       </c>
-      <c r="H25">
+      <c r="H36">
         <v>29.649000000000001</v>
       </c>
-      <c r="I25">
+      <c r="I36">
         <v>30.803999999999998</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
+      <c r="J36">
+        <f>H36-G36</f>
         <v>1.4840000000000018</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="1"/>
+      <c r="K36">
+        <f>I36-H36</f>
         <v>1.1549999999999976</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
         <v>25</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C37" s="1">
         <v>46</v>
       </c>
-      <c r="D26">
+      <c r="D37">
         <v>32.4</v>
       </c>
-      <c r="E26">
+      <c r="E37">
         <v>18.600000000000001</v>
       </c>
-      <c r="F26">
+      <c r="F37">
         <v>17.7</v>
       </c>
-      <c r="G26">
+      <c r="G37">
         <v>32.497</v>
       </c>
-      <c r="H26">
+      <c r="H37">
         <v>33.148000000000003</v>
       </c>
-      <c r="I26">
+      <c r="I37">
         <v>33.716999999999999</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
+      <c r="J37">
+        <f>H37-G37</f>
         <v>0.65100000000000335</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="1"/>
+      <c r="K37">
+        <f>I37-H37</f>
         <v>0.56899999999999551</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
         <v>26</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C38" s="1">
         <v>26</v>
       </c>
-      <c r="D27">
+      <c r="D38">
         <v>26</v>
       </c>
-      <c r="E27">
+      <c r="E38">
         <v>21.3</v>
       </c>
-      <c r="F27">
+      <c r="F38">
         <v>21.3</v>
       </c>
-      <c r="G27">
+      <c r="G38">
         <v>15.401999999999999</v>
       </c>
-      <c r="H27">
+      <c r="H38">
         <v>15.884</v>
       </c>
-      <c r="I27">
+      <c r="I38">
         <v>16.321999999999999</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="0"/>
+      <c r="J38">
+        <f>H38-G38</f>
         <v>0.48200000000000109</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="1"/>
+      <c r="K38">
+        <f>I38-H38</f>
         <v>0.43799999999999883</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
         <v>27</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C39" s="1">
         <v>203</v>
       </c>
-      <c r="D28">
+      <c r="D39">
         <v>35.4</v>
       </c>
-      <c r="E28">
+      <c r="E39">
         <v>28</v>
       </c>
-      <c r="F28">
+      <c r="F39">
         <v>26.9</v>
       </c>
-      <c r="G28">
+      <c r="G39">
         <v>19.503</v>
       </c>
-      <c r="H28">
+      <c r="H39">
         <v>20.565999999999999</v>
       </c>
-      <c r="I28">
+      <c r="I39">
         <v>21.507999999999999</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
+      <c r="J39">
+        <f>H39-G39</f>
         <v>1.0629999999999988</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="1"/>
+      <c r="K39">
+        <f>I39-H39</f>
         <v>0.94200000000000017</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40">
         <v>28</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C40" s="1">
         <v>21</v>
       </c>
-      <c r="D29">
+      <c r="D40">
         <v>22.5</v>
       </c>
-      <c r="E29">
+      <c r="E40">
         <v>19.100000000000001</v>
       </c>
-      <c r="F29">
+      <c r="F40">
         <v>20.3</v>
       </c>
-      <c r="G29">
+      <c r="G40">
         <v>13.917</v>
       </c>
-      <c r="H29">
+      <c r="H40">
         <v>14.33</v>
       </c>
-      <c r="I29">
+      <c r="I40">
         <v>14.698</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
+      <c r="J40">
+        <f>H40-G40</f>
         <v>0.41300000000000026</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="1"/>
+      <c r="K40">
+        <f>I40-H40</f>
         <v>0.36800000000000033</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41">
         <v>29</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C41" s="1">
         <v>221</v>
       </c>
-      <c r="D30">
+      <c r="D41">
         <v>30.1</v>
       </c>
-      <c r="E30">
+      <c r="E41">
         <v>25.2</v>
       </c>
-      <c r="F30">
+      <c r="F41">
         <v>20.8</v>
       </c>
-      <c r="G30">
+      <c r="G41">
         <v>19.72</v>
       </c>
-      <c r="H30">
+      <c r="H41">
         <v>20.51</v>
       </c>
-      <c r="I30">
+      <c r="I41">
         <v>21.245000000000001</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="0"/>
+      <c r="J41">
+        <f>H41-G41</f>
         <v>0.7900000000000027</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="1"/>
+      <c r="K41">
+        <f>I41-H41</f>
         <v>0.73499999999999943</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42">
         <v>30</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D31">
+      <c r="D42">
         <v>32.1</v>
       </c>
-      <c r="E31">
+      <c r="E42">
         <v>25.6</v>
       </c>
-      <c r="F31">
+      <c r="F42">
         <v>26.8</v>
       </c>
-      <c r="G31">
+      <c r="G42">
         <v>19.738</v>
       </c>
-      <c r="H31">
+      <c r="H42">
         <v>20.66</v>
       </c>
-      <c r="I31">
+      <c r="I42">
         <v>21.425999999999998</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
+      <c r="J42">
+        <f>H42-G42</f>
         <v>0.9220000000000006</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="1"/>
+      <c r="K42">
+        <f>I42-H42</f>
         <v>0.76599999999999824</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43">
         <v>31</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C43" s="1">
         <v>73</v>
       </c>
-      <c r="D32">
+      <c r="D43">
         <v>22.4</v>
       </c>
-      <c r="E32">
+      <c r="E43">
         <v>14.2</v>
       </c>
-      <c r="F32">
+      <c r="F43">
         <v>13.8</v>
       </c>
-      <c r="G32">
+      <c r="G43">
         <v>3.5379999999999998</v>
       </c>
-      <c r="H32">
+      <c r="H43">
         <v>3.7549999999999999</v>
       </c>
-      <c r="I32">
+      <c r="I43">
         <v>3.9649999999999999</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
+      <c r="J43">
+        <f>H43-G43</f>
         <v>0.21700000000000008</v>
       </c>
-      <c r="K32">
-        <f t="shared" si="1"/>
+      <c r="K43">
+        <f>I43-H43</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44">
         <v>32</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C44" s="1">
         <v>99</v>
       </c>
-      <c r="D33">
+      <c r="D44">
         <v>36.299999999999997</v>
       </c>
-      <c r="E33">
+      <c r="E44">
         <v>30.6</v>
       </c>
-      <c r="F33">
+      <c r="F44">
         <v>25.3</v>
       </c>
-      <c r="G33">
+      <c r="G44">
         <v>20.638000000000002</v>
       </c>
-      <c r="H33">
+      <c r="H44">
         <v>21.876000000000001</v>
       </c>
-      <c r="I33">
+      <c r="I44">
         <v>22.983000000000001</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="0"/>
+      <c r="J44">
+        <f>H44-G44</f>
         <v>1.2379999999999995</v>
       </c>
-      <c r="K33">
-        <f t="shared" si="1"/>
+      <c r="K44">
+        <f>I44-H44</f>
         <v>1.1069999999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45">
         <v>33</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C45" s="1">
         <v>205</v>
       </c>
-      <c r="D34">
+      <c r="D45">
         <v>23</v>
       </c>
-      <c r="E34">
+      <c r="E45">
         <v>20.5</v>
       </c>
-      <c r="F34">
+      <c r="F45">
         <v>19.399999999999999</v>
       </c>
-      <c r="G34">
+      <c r="G45">
         <v>17.375</v>
       </c>
-      <c r="H34">
+      <c r="H45">
         <v>17.864000000000001</v>
       </c>
-      <c r="I34">
+      <c r="I45">
         <v>18.228000000000002</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="0"/>
+      <c r="J45">
+        <f>H45-G45</f>
         <v>0.48900000000000077</v>
       </c>
-      <c r="K34">
-        <f t="shared" si="1"/>
+      <c r="K45">
+        <f>I45-H45</f>
         <v>0.36400000000000077</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46">
         <v>34</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C46" s="1">
         <v>61</v>
       </c>
-      <c r="D35">
+      <c r="D46">
         <v>22.2</v>
       </c>
-      <c r="E35">
+      <c r="E46">
         <v>16.100000000000001</v>
       </c>
-      <c r="F35">
+      <c r="F46">
         <v>15.5</v>
       </c>
-      <c r="G35">
+      <c r="G46">
         <v>7.0030000000000001</v>
       </c>
-      <c r="H35">
+      <c r="H46">
         <v>7.2670000000000003</v>
       </c>
-      <c r="I35">
+      <c r="I46">
         <v>7.4960000000000004</v>
       </c>
-      <c r="J35">
-        <f t="shared" ref="J35:J66" si="2">H35-G35</f>
+      <c r="J46">
+        <f>H46-G46</f>
         <v>0.26400000000000023</v>
       </c>
-      <c r="K35">
-        <f t="shared" si="1"/>
+      <c r="K46">
+        <f>I46-H46</f>
         <v>0.22900000000000009</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47">
         <v>35</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C47" s="1">
         <v>5</v>
       </c>
-      <c r="D36">
+      <c r="D47">
         <v>22</v>
       </c>
-      <c r="E36">
+      <c r="E47">
         <v>16.600000000000001</v>
       </c>
-      <c r="F36">
+      <c r="F47">
         <v>12</v>
       </c>
-      <c r="G36">
+      <c r="G47">
         <v>4.9660000000000002</v>
       </c>
-      <c r="H36">
+      <c r="H47">
         <v>5.399</v>
       </c>
-      <c r="I36">
+      <c r="I47">
         <v>5.5810000000000004</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="2"/>
+      <c r="J47">
+        <f>H47-G47</f>
         <v>0.43299999999999983</v>
       </c>
-      <c r="K36">
-        <f t="shared" si="1"/>
+      <c r="K47">
+        <f>I47-H47</f>
         <v>0.18200000000000038</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>36</v>
-      </c>
-      <c r="C37" s="1">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48">
+        <v>36</v>
+      </c>
+      <c r="C48" s="1">
         <v>65</v>
       </c>
-      <c r="D37">
+      <c r="D48">
         <v>17.2</v>
       </c>
-      <c r="E37">
+      <c r="E48">
         <v>14.3</v>
       </c>
-      <c r="F37">
+      <c r="F48">
         <v>9.6</v>
       </c>
-      <c r="G37">
+      <c r="G48">
         <v>11.052</v>
       </c>
-      <c r="H37">
+      <c r="H48">
         <v>11.209</v>
       </c>
-      <c r="I37">
+      <c r="I48">
         <v>11.313000000000001</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="2"/>
+      <c r="J48">
+        <f>H48-G48</f>
         <v>0.15700000000000003</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="1"/>
+      <c r="K48">
+        <f>I48-H48</f>
         <v>0.10400000000000098</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49">
         <v>37</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C49" s="1">
         <v>3</v>
       </c>
-      <c r="D38">
+      <c r="D49">
         <v>30.1</v>
       </c>
-      <c r="E38">
+      <c r="E49">
         <v>24.7</v>
       </c>
-      <c r="F38">
+      <c r="F49">
         <v>21.1</v>
       </c>
-      <c r="G38">
+      <c r="G49">
         <v>16.198</v>
       </c>
-      <c r="H38">
+      <c r="H49">
         <v>16.789000000000001</v>
       </c>
-      <c r="I38">
+      <c r="I49">
         <v>17.369</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="2"/>
+      <c r="J49">
+        <f>H49-G49</f>
         <v>0.59100000000000108</v>
       </c>
-      <c r="K38">
-        <f t="shared" si="1"/>
+      <c r="K49">
+        <f>I49-H49</f>
         <v>0.57999999999999829</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50">
         <v>38</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C50" s="1">
         <v>2</v>
       </c>
-      <c r="D39">
+      <c r="D50">
         <v>30</v>
       </c>
-      <c r="E39">
+      <c r="E50">
         <v>24.2</v>
       </c>
-      <c r="F39">
+      <c r="F50">
         <v>23.8</v>
       </c>
-      <c r="G39">
+      <c r="G50">
         <v>23.856999999999999</v>
       </c>
-      <c r="H39">
+      <c r="H50">
         <v>24.475999999999999</v>
       </c>
-      <c r="I39">
+      <c r="I50">
         <v>25.071000000000002</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="2"/>
+      <c r="J50">
+        <f>H50-G50</f>
         <v>0.61899999999999977</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="1"/>
+      <c r="K50">
+        <f>I50-H50</f>
         <v>0.59500000000000242</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51">
         <v>39</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C51" s="1">
         <v>201</v>
       </c>
-      <c r="D40">
+      <c r="D51">
         <v>27.4</v>
       </c>
-      <c r="E40">
+      <c r="E51">
         <v>20.2</v>
       </c>
-      <c r="F40">
+      <c r="F51">
         <v>16.5</v>
       </c>
-      <c r="G40">
+      <c r="G51">
         <v>5.97</v>
       </c>
-      <c r="H40">
+      <c r="H51">
         <v>6.3449999999999998</v>
       </c>
-      <c r="I40">
+      <c r="I51">
         <v>6.6980000000000004</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="2"/>
+      <c r="J51">
+        <f>H51-G51</f>
         <v>0.375</v>
       </c>
-      <c r="K40">
-        <f t="shared" si="1"/>
+      <c r="K51">
+        <f>I51-H51</f>
         <v>0.35300000000000065</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52">
         <v>40</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C52" s="1">
         <v>200</v>
       </c>
-      <c r="D41">
+      <c r="D52">
         <v>18.8</v>
       </c>
-      <c r="E41">
+      <c r="E52">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F41">
+      <c r="F52">
         <v>11.4</v>
       </c>
-      <c r="G41">
+      <c r="G52">
         <v>10.141999999999999</v>
       </c>
-      <c r="H41">
+      <c r="H52">
         <v>10.262</v>
       </c>
-      <c r="I41">
+      <c r="I52">
         <v>10.393000000000001</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="2"/>
+      <c r="J52">
+        <f>H52-G52</f>
         <v>0.12000000000000099</v>
       </c>
-      <c r="K41">
-        <f t="shared" si="1"/>
+      <c r="K52">
+        <f>I52-H52</f>
         <v>0.13100000000000023</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53">
         <v>41</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C53" s="1">
         <v>214</v>
       </c>
-      <c r="D42">
+      <c r="D53">
         <v>29.2</v>
       </c>
-      <c r="E42">
+      <c r="E53">
         <v>22.4</v>
       </c>
-      <c r="F42">
+      <c r="F53">
         <v>26.5</v>
       </c>
-      <c r="G42">
+      <c r="G53">
         <v>14.688000000000001</v>
       </c>
-      <c r="H42">
+      <c r="H53">
         <v>15.619</v>
       </c>
-      <c r="I42">
+      <c r="I53">
         <v>16.449000000000002</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="2"/>
+      <c r="J53">
+        <f>H53-G53</f>
         <v>0.93099999999999916</v>
       </c>
-      <c r="K42">
-        <f t="shared" si="1"/>
+      <c r="K53">
+        <f>I53-H53</f>
         <v>0.83000000000000185</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54">
         <v>42</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C54" s="1">
         <v>7</v>
       </c>
-      <c r="D43">
+      <c r="D54">
         <v>32.299999999999997</v>
       </c>
-      <c r="E43">
+      <c r="E54">
         <v>30</v>
       </c>
-      <c r="F43">
+      <c r="F54">
         <v>23</v>
       </c>
-      <c r="H43">
+      <c r="H54">
         <v>37.499000000000002</v>
       </c>
-      <c r="I43">
+      <c r="I54">
         <v>38.192</v>
       </c>
-      <c r="J43">
-        <f t="shared" si="2"/>
+      <c r="J54">
+        <f>H54-G54</f>
         <v>37.499000000000002</v>
       </c>
-      <c r="K43">
-        <f t="shared" si="1"/>
+      <c r="K54">
+        <f>I54-H54</f>
         <v>0.69299999999999784</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55">
         <v>43</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D44">
+      <c r="D55">
         <v>18.5</v>
       </c>
-      <c r="E44">
+      <c r="E55">
         <v>14.5</v>
       </c>
-      <c r="F44">
+      <c r="F55">
         <v>17.7</v>
       </c>
-      <c r="G44">
+      <c r="G55">
         <v>8.8529999999999998</v>
       </c>
-      <c r="H44">
+      <c r="H55">
         <v>8.9930000000000003</v>
       </c>
-      <c r="I44">
+      <c r="I55">
         <v>9.1489999999999991</v>
       </c>
-      <c r="J44">
-        <f t="shared" si="2"/>
+      <c r="J55">
+        <f>H55-G55</f>
         <v>0.14000000000000057</v>
       </c>
-      <c r="K44">
-        <f t="shared" si="1"/>
+      <c r="K55">
+        <f>I55-H55</f>
         <v>0.15599999999999881</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56">
         <v>44</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C56" s="1">
         <v>217</v>
       </c>
-      <c r="D45">
+      <c r="D56">
         <v>21</v>
       </c>
-      <c r="E45">
+      <c r="E56">
         <v>16</v>
       </c>
-      <c r="F45">
+      <c r="F56">
         <v>13.1</v>
       </c>
-      <c r="G45">
+      <c r="G56">
         <v>18.271000000000001</v>
       </c>
-      <c r="H45">
+      <c r="H56">
         <v>18.579999999999998</v>
       </c>
-      <c r="I45">
+      <c r="I56">
         <v>18.802</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="2"/>
+      <c r="J56">
+        <f>H56-G56</f>
         <v>0.3089999999999975</v>
       </c>
-      <c r="K45">
-        <f t="shared" si="1"/>
+      <c r="K56">
+        <f>I56-H56</f>
         <v>0.22200000000000131</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
-      <c r="A46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57">
         <v>45</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C57" s="1">
         <v>220</v>
       </c>
-      <c r="D46">
+      <c r="D57">
+        <v>15</v>
+      </c>
+      <c r="E57">
         <v>13.8</v>
       </c>
-      <c r="E46">
+      <c r="F57">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G57">
+        <v>8.7249999999999996</v>
+      </c>
+      <c r="H57">
+        <v>8.8439999999999994</v>
+      </c>
+      <c r="I57">
+        <v>8.9339999999999993</v>
+      </c>
+      <c r="J57">
+        <f>H57-G57</f>
+        <v>0.11899999999999977</v>
+      </c>
+      <c r="K57">
+        <f>I57-H57</f>
+        <v>8.9999999999999858E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58">
+        <v>46</v>
+      </c>
+      <c r="C58" s="1">
+        <v>67</v>
+      </c>
+      <c r="D58">
+        <v>20.5</v>
+      </c>
+      <c r="E58">
+        <v>19.2</v>
+      </c>
+      <c r="F58">
+        <v>12.2</v>
+      </c>
+      <c r="G58">
+        <v>20.553999999999998</v>
+      </c>
+      <c r="H58">
+        <v>20.777999999999999</v>
+      </c>
+      <c r="I58">
+        <v>20.962</v>
+      </c>
+      <c r="J58">
+        <f>H58-G58</f>
+        <v>0.2240000000000002</v>
+      </c>
+      <c r="K58">
+        <f>I58-H58</f>
+        <v>0.18400000000000105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59">
+        <v>47</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>19.7</v>
+      </c>
+      <c r="E59">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F59">
+        <v>12.1</v>
+      </c>
+      <c r="G59">
+        <v>2.8580000000000001</v>
+      </c>
+      <c r="H59">
+        <v>3.0419999999999998</v>
+      </c>
+      <c r="I59">
+        <v>3.1789999999999998</v>
+      </c>
+      <c r="J59">
+        <f>H59-G59</f>
+        <v>0.18399999999999972</v>
+      </c>
+      <c r="K59">
+        <f>I59-H59</f>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60">
+        <v>48</v>
+      </c>
+      <c r="C60" s="1">
+        <v>72</v>
+      </c>
+      <c r="D60">
+        <v>34.5</v>
+      </c>
+      <c r="E60">
+        <v>33.5</v>
+      </c>
+      <c r="F60">
+        <v>23.8</v>
+      </c>
+      <c r="G60">
+        <v>20.521999999999998</v>
+      </c>
+      <c r="H60">
+        <v>21.652999999999999</v>
+      </c>
+      <c r="I60">
+        <v>22.658000000000001</v>
+      </c>
+      <c r="J60">
+        <f>H60-G60</f>
+        <v>1.1310000000000002</v>
+      </c>
+      <c r="K60">
+        <f>I60-H60</f>
+        <v>1.0050000000000026</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61">
+        <v>49</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <v>18.2</v>
+      </c>
+      <c r="E61">
         <v>15</v>
       </c>
-      <c r="F46">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="G46">
-        <v>8.7249999999999996</v>
-      </c>
-      <c r="H46">
-        <v>8.8439999999999994</v>
-      </c>
-      <c r="I46">
-        <v>8.9339999999999993</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="2"/>
-        <v>0.11899999999999977</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="1"/>
-        <v>8.9999999999999858E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47">
-        <v>46</v>
-      </c>
-      <c r="C47" s="1">
-        <v>67</v>
-      </c>
-      <c r="D47">
-        <v>20.5</v>
-      </c>
-      <c r="E47">
-        <v>19.2</v>
-      </c>
-      <c r="F47">
-        <v>12.2</v>
-      </c>
-      <c r="G47">
-        <v>20.553999999999998</v>
-      </c>
-      <c r="H47">
-        <v>20.777999999999999</v>
-      </c>
-      <c r="I47">
-        <v>20.962</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="2"/>
-        <v>0.2240000000000002</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="1"/>
-        <v>0.18400000000000105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48">
-        <v>47</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48">
-        <v>19.7</v>
-      </c>
-      <c r="E48">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="F48">
+      <c r="F61">
+        <v>14</v>
+      </c>
+      <c r="G61">
+        <v>4.32</v>
+      </c>
+      <c r="H61">
+        <v>4.4560000000000004</v>
+      </c>
+      <c r="I61">
+        <v>4.6180000000000003</v>
+      </c>
+      <c r="J61">
+        <f>H61-G61</f>
+        <v>0.13600000000000012</v>
+      </c>
+      <c r="K61">
+        <f>I61-H61</f>
+        <v>0.16199999999999992</v>
+      </c>
+      <c r="L61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62">
+        <v>50</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>15.5</v>
+      </c>
+      <c r="E62">
+        <v>14.6</v>
+      </c>
+      <c r="F62">
+        <v>11.6</v>
+      </c>
+      <c r="G62">
+        <v>8.077</v>
+      </c>
+      <c r="H62">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="I62">
+        <v>8.3840000000000003</v>
+      </c>
+      <c r="J62">
+        <f>H62-G62</f>
+        <v>0.14300000000000068</v>
+      </c>
+      <c r="K62">
+        <f>I62-H62</f>
+        <v>0.1639999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63">
+        <v>51</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63">
+        <v>20.2</v>
+      </c>
+      <c r="E63">
         <v>12.1</v>
       </c>
-      <c r="G48">
-        <v>2.8580000000000001</v>
-      </c>
-      <c r="H48">
-        <v>3.0419999999999998</v>
-      </c>
-      <c r="I48">
-        <v>3.1789999999999998</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="2"/>
-        <v>0.18399999999999972</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="1"/>
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49">
-        <v>48</v>
-      </c>
-      <c r="C49" s="1">
-        <v>72</v>
-      </c>
-      <c r="D49">
-        <v>34.5</v>
-      </c>
-      <c r="E49">
-        <v>33.5</v>
-      </c>
-      <c r="F49">
-        <v>23.8</v>
-      </c>
-      <c r="G49">
-        <v>20.521999999999998</v>
-      </c>
-      <c r="H49">
-        <v>21.652999999999999</v>
-      </c>
-      <c r="I49">
-        <v>22.658000000000001</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="2"/>
-        <v>1.1310000000000002</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="1"/>
-        <v>1.0050000000000026</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50">
-        <v>49</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50">
-        <v>18.2</v>
-      </c>
-      <c r="E50">
+      <c r="F63">
+        <v>12.3</v>
+      </c>
+      <c r="G63">
+        <v>3.7450000000000001</v>
+      </c>
+      <c r="H63">
+        <v>3.9420000000000002</v>
+      </c>
+      <c r="I63">
+        <v>4.1159999999999997</v>
+      </c>
+      <c r="J63">
+        <f>H63-G63</f>
+        <v>0.19700000000000006</v>
+      </c>
+      <c r="K63">
+        <f>I63-H63</f>
+        <v>0.17399999999999949</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64">
+        <v>52</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64">
         <v>15</v>
       </c>
-      <c r="F50">
-        <v>14</v>
-      </c>
-      <c r="G50">
-        <v>4.32</v>
-      </c>
-      <c r="H50">
-        <v>4.4560000000000004</v>
-      </c>
-      <c r="I50">
-        <v>4.6180000000000003</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="2"/>
-        <v>0.13600000000000012</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="1"/>
-        <v>0.16199999999999992</v>
-      </c>
-      <c r="L50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51">
-        <v>50</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51">
-        <v>15.5</v>
-      </c>
-      <c r="E51">
-        <v>14.6</v>
-      </c>
-      <c r="F51">
-        <v>11.6</v>
-      </c>
-      <c r="G51">
-        <v>8.077</v>
-      </c>
-      <c r="H51">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="I51">
-        <v>8.3840000000000003</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="2"/>
-        <v>0.14300000000000068</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="1"/>
-        <v>0.1639999999999997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52">
-        <v>51</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="E64">
+        <v>12.1</v>
+      </c>
+      <c r="F64">
+        <v>11.1</v>
+      </c>
+      <c r="G64">
+        <v>3.7919999999999998</v>
+      </c>
+      <c r="H64">
+        <v>3.9159999999999999</v>
+      </c>
+      <c r="I64">
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="J64">
+        <f>H64-G64</f>
+        <v>0.12400000000000011</v>
+      </c>
+      <c r="K64">
+        <f>I64-H64</f>
+        <v>0.11700000000000044</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65">
+        <v>53</v>
+      </c>
+      <c r="C65" s="1">
+        <v>24</v>
+      </c>
+      <c r="D65">
+        <v>15.6</v>
+      </c>
+      <c r="E65">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F65">
+        <v>9.6</v>
+      </c>
+      <c r="G65">
+        <v>9.6389999999999993</v>
+      </c>
+      <c r="H65">
+        <v>9.7430000000000003</v>
+      </c>
+      <c r="I65">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="J65">
+        <f>H65-G65</f>
+        <v>0.10400000000000098</v>
+      </c>
+      <c r="K65">
+        <f>I65-H65</f>
+        <v>0.12699999999999889</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66">
+        <v>54</v>
+      </c>
+      <c r="C66" s="1">
+        <v>39</v>
+      </c>
+      <c r="D66">
+        <v>25.1</v>
+      </c>
+      <c r="E66">
+        <v>21.1</v>
+      </c>
+      <c r="F66">
         <v>15</v>
       </c>
-      <c r="D52">
-        <v>20.2</v>
-      </c>
-      <c r="E52">
-        <v>12.1</v>
-      </c>
-      <c r="F52">
-        <v>12.3</v>
-      </c>
-      <c r="G52">
-        <v>3.7450000000000001</v>
-      </c>
-      <c r="H52">
-        <v>3.9420000000000002</v>
-      </c>
-      <c r="I52">
-        <v>4.1159999999999997</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="2"/>
-        <v>0.19700000000000006</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="1"/>
-        <v>0.17399999999999949</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53">
-        <v>52</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53">
-        <v>15</v>
-      </c>
-      <c r="E53">
-        <v>12.1</v>
-      </c>
-      <c r="F53">
-        <v>11.1</v>
-      </c>
-      <c r="G53">
-        <v>3.7919999999999998</v>
-      </c>
-      <c r="H53">
-        <v>3.9159999999999999</v>
-      </c>
-      <c r="I53">
-        <v>4.0330000000000004</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="2"/>
-        <v>0.12400000000000011</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="1"/>
-        <v>0.11700000000000044</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54">
-        <v>53</v>
-      </c>
-      <c r="C54" s="1">
-        <v>24</v>
-      </c>
-      <c r="D54">
-        <v>15.6</v>
-      </c>
-      <c r="E54">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F54">
-        <v>9.6</v>
-      </c>
-      <c r="G54">
-        <v>9.6389999999999993</v>
-      </c>
-      <c r="H54">
-        <v>9.7430000000000003</v>
-      </c>
-      <c r="I54">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="2"/>
-        <v>0.10400000000000098</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="1"/>
-        <v>0.12699999999999889</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55">
-        <v>54</v>
-      </c>
-      <c r="C55" s="1">
-        <v>39</v>
-      </c>
-      <c r="D55">
-        <v>25.1</v>
-      </c>
-      <c r="E55">
-        <v>21.1</v>
-      </c>
-      <c r="F55">
-        <v>15</v>
-      </c>
-      <c r="G55">
+      <c r="G66">
         <v>16.902999999999999</v>
       </c>
-      <c r="H55">
+      <c r="H66">
         <v>17.363</v>
       </c>
-      <c r="I55">
+      <c r="I66">
         <v>17.763000000000002</v>
       </c>
-      <c r="J55">
-        <f t="shared" si="2"/>
+      <c r="J66">
+        <f>H66-G66</f>
         <v>0.46000000000000085</v>
       </c>
-      <c r="K55">
-        <f t="shared" si="1"/>
+      <c r="K66">
+        <f>I66-H66</f>
         <v>0.40000000000000213</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
-      <c r="A56" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67">
         <v>55</v>
       </c>
-      <c r="C56" s="1">
-        <v>36</v>
-      </c>
-      <c r="D56">
+      <c r="C67" s="1">
+        <v>36</v>
+      </c>
+      <c r="D67">
         <v>30.2</v>
       </c>
-      <c r="E56">
+      <c r="E67">
         <v>30.2</v>
       </c>
-      <c r="F56">
+      <c r="F67">
         <v>24.3</v>
       </c>
-      <c r="G56">
+      <c r="G67">
         <v>27.419</v>
       </c>
-      <c r="H56">
+      <c r="H67">
         <v>28.378</v>
       </c>
-      <c r="I56">
+      <c r="I67">
         <v>29.292000000000002</v>
       </c>
-      <c r="J56">
-        <f t="shared" si="2"/>
+      <c r="J67">
+        <f>H67-G67</f>
         <v>0.95899999999999963</v>
       </c>
-      <c r="K56">
-        <f t="shared" si="1"/>
+      <c r="K67">
+        <f>I67-H67</f>
         <v>0.91400000000000148</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L67" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
-      <c r="A57" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68">
         <v>56</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C68" s="1">
         <v>57</v>
       </c>
-      <c r="D57">
+      <c r="D68">
         <v>27.1</v>
       </c>
-      <c r="E57">
+      <c r="E68">
         <v>22</v>
       </c>
-      <c r="F57">
+      <c r="F68">
         <v>17.3</v>
       </c>
-      <c r="H57">
+      <c r="H68">
         <v>8.0459999999999994</v>
       </c>
-      <c r="I57">
+      <c r="I68">
         <v>8.548</v>
       </c>
-      <c r="J57">
-        <f t="shared" si="2"/>
+      <c r="J68">
+        <f>H68-G68</f>
         <v>8.0459999999999994</v>
       </c>
-      <c r="K57">
-        <f t="shared" si="1"/>
+      <c r="K68">
+        <f>I68-H68</f>
         <v>0.50200000000000067</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L68" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="A58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69">
         <v>57</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D58">
+      <c r="D69">
         <v>26.5</v>
       </c>
-      <c r="E58">
+      <c r="E69">
         <v>23.2</v>
       </c>
-      <c r="F58">
+      <c r="F69">
         <v>18.399999999999999</v>
       </c>
-      <c r="G58">
+      <c r="G69">
         <v>9.6300000000000008</v>
       </c>
-      <c r="H58">
+      <c r="H69">
         <v>10.17</v>
       </c>
-      <c r="I58">
+      <c r="I69">
         <v>10.752000000000001</v>
       </c>
-      <c r="J58">
-        <f t="shared" si="2"/>
+      <c r="J69">
+        <f>H69-G69</f>
         <v>0.53999999999999915</v>
       </c>
-      <c r="K58">
-        <f t="shared" si="1"/>
+      <c r="K69">
+        <f>I69-H69</f>
         <v>0.58200000000000074</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L69" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="A59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59">
-        <v>58</v>
-      </c>
-      <c r="C59" s="1">
-        <v>12</v>
-      </c>
-      <c r="D59">
-        <v>6.2</v>
-      </c>
-      <c r="F59">
-        <v>11.3</v>
-      </c>
-      <c r="G59">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="H59">
-        <v>0.745</v>
-      </c>
-      <c r="I59">
-        <v>0.8</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="2"/>
-        <v>4.3000000000000038E-2</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="1"/>
-        <v>5.5000000000000049E-2</v>
-      </c>
-      <c r="L59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60">
-        <v>59</v>
-      </c>
-      <c r="C60" s="1">
-        <v>16</v>
-      </c>
-      <c r="D60">
-        <v>11.3</v>
-      </c>
-      <c r="F60">
-        <v>13.4</v>
-      </c>
-      <c r="G60">
-        <v>2.2450000000000001</v>
-      </c>
-      <c r="H60">
-        <v>2.3730000000000002</v>
-      </c>
-      <c r="I60">
-        <v>2.5219999999999998</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="2"/>
-        <v>0.12800000000000011</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="1"/>
-        <v>0.14899999999999958</v>
-      </c>
-      <c r="L60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61">
-        <v>60</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61">
-        <v>16</v>
-      </c>
-      <c r="F61">
-        <v>39</v>
-      </c>
-      <c r="G61">
-        <v>6.2140000000000004</v>
-      </c>
-      <c r="H61">
-        <v>6.8570000000000002</v>
-      </c>
-      <c r="I61">
-        <v>7.5410000000000004</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="2"/>
-        <v>0.64299999999999979</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="1"/>
-        <v>0.68400000000000016</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62">
-        <v>61</v>
-      </c>
-      <c r="C62" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="D62">
-        <v>19</v>
-      </c>
-      <c r="F62">
-        <v>24</v>
-      </c>
-      <c r="G62">
-        <v>9.8290000000000006</v>
-      </c>
-      <c r="H62">
-        <v>10.346</v>
-      </c>
-      <c r="I62">
-        <v>10.85</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="2"/>
-        <v>0.51699999999999946</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="1"/>
-        <v>0.50399999999999956</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63">
-        <v>62</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63">
-        <v>22.2</v>
-      </c>
-      <c r="F63">
-        <v>34.1</v>
-      </c>
-      <c r="G63">
-        <v>8.9670000000000005</v>
-      </c>
-      <c r="H63">
-        <v>9.7530000000000001</v>
-      </c>
-      <c r="I63">
-        <v>10.638</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="2"/>
-        <v>0.78599999999999959</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="1"/>
-        <v>0.88499999999999979</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" t="s">
-        <v>17</v>
-      </c>
-      <c r="B64">
-        <v>63</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64">
-        <v>22.2</v>
-      </c>
-      <c r="F64">
-        <v>50</v>
-      </c>
-      <c r="G64">
-        <v>26.234000000000002</v>
-      </c>
-      <c r="H64">
-        <v>27.411999999999999</v>
-      </c>
-      <c r="I64">
-        <v>28.614999999999998</v>
-      </c>
-      <c r="J64">
-        <f t="shared" si="2"/>
-        <v>1.1779999999999973</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="1"/>
-        <v>1.2029999999999994</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65">
-        <v>64</v>
-      </c>
-      <c r="C65" s="1">
-        <v>19</v>
-      </c>
-      <c r="D65">
-        <v>11.2</v>
-      </c>
-      <c r="F65">
-        <v>37</v>
-      </c>
-      <c r="G65">
-        <v>2.1280000000000001</v>
-      </c>
-      <c r="H65">
-        <v>2.4380000000000002</v>
-      </c>
-      <c r="I65">
-        <v>2.8740000000000001</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="2"/>
-        <v>0.31000000000000005</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="1"/>
-        <v>0.43599999999999994</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" t="s">
-        <v>17</v>
-      </c>
-      <c r="B66">
-        <v>65</v>
-      </c>
-      <c r="C66" s="1">
-        <v>24</v>
-      </c>
-      <c r="D66">
-        <v>11.3</v>
-      </c>
-      <c r="F66">
-        <v>22.9</v>
-      </c>
-      <c r="G66">
-        <v>2.0110000000000001</v>
-      </c>
-      <c r="H66">
-        <v>2.1960000000000002</v>
-      </c>
-      <c r="I66">
-        <v>2.4510000000000001</v>
-      </c>
-      <c r="J66">
-        <f t="shared" si="2"/>
-        <v>0.18500000000000005</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="1"/>
-        <v>0.25499999999999989</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" t="s">
-        <v>17</v>
-      </c>
-      <c r="B67">
-        <v>66</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67">
-        <v>6.3</v>
-      </c>
-      <c r="F67">
-        <v>6</v>
-      </c>
-      <c r="G67">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="H67">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="I67">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="J67">
-        <f t="shared" ref="J67:J115" si="3">H67-G67</f>
-        <v>3.6000000000000032E-2</v>
-      </c>
-      <c r="K67">
-        <f t="shared" ref="K67:K115" si="4">I67-H67</f>
-        <v>3.8000000000000034E-2</v>
-      </c>
-      <c r="L67" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" t="s">
-        <v>17</v>
-      </c>
-      <c r="B68">
-        <v>67</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>22</v>
-      </c>
-      <c r="F68">
-        <v>42</v>
-      </c>
-      <c r="G68">
-        <v>39.393000000000001</v>
-      </c>
-      <c r="H68">
-        <v>40.441000000000003</v>
-      </c>
-      <c r="I68">
-        <v>41.393999999999998</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="3"/>
-        <v>1.0480000000000018</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="4"/>
-        <v>0.95299999999999585</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69">
-        <v>68</v>
-      </c>
-      <c r="C69" s="1">
-        <v>10</v>
-      </c>
-      <c r="D69">
-        <v>6</v>
-      </c>
-      <c r="F69">
-        <v>5.5</v>
-      </c>
-      <c r="G69">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="H69">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="I69">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="3"/>
-        <v>2.6999999999999913E-2</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="4"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -3088,15 +3095,15 @@
         <v>15.246</v>
       </c>
       <c r="J70">
-        <f t="shared" si="3"/>
+        <f>H70-G70</f>
         <v>0.74900000000000055</v>
       </c>
       <c r="K70">
-        <f t="shared" si="4"/>
+        <f>I70-H70</f>
         <v>0.55400000000000027</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -3125,15 +3132,15 @@
         <v>10.420999999999999</v>
       </c>
       <c r="J71">
-        <f t="shared" si="3"/>
+        <f>H71-G71</f>
         <v>0.6120000000000001</v>
       </c>
       <c r="K71">
-        <f t="shared" si="4"/>
+        <f>I71-H71</f>
         <v>0.57399999999999984</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>36</v>
       </c>
@@ -3159,15 +3166,15 @@
         <v>12.625999999999999</v>
       </c>
       <c r="J72">
-        <f t="shared" si="3"/>
+        <f>H72-G72</f>
         <v>11.968</v>
       </c>
       <c r="K72">
-        <f t="shared" si="4"/>
+        <f>I72-H72</f>
         <v>0.65799999999999947</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -3196,18 +3203,18 @@
         <v>4.3540000000000001</v>
       </c>
       <c r="J73">
-        <f t="shared" si="3"/>
+        <f>H73-G73</f>
         <v>0.15500000000000025</v>
       </c>
       <c r="K73">
-        <f t="shared" si="4"/>
+        <f>I73-H73</f>
         <v>0.16000000000000014</v>
       </c>
       <c r="L73" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -3236,15 +3243,15 @@
         <v>5.5590000000000002</v>
       </c>
       <c r="J74">
-        <f t="shared" si="3"/>
+        <f>H74-G74</f>
         <v>0.23799999999999955</v>
       </c>
       <c r="K74">
-        <f t="shared" si="4"/>
+        <f>I74-H74</f>
         <v>0.20900000000000052</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -3273,15 +3280,15 @@
         <v>3.5870000000000002</v>
       </c>
       <c r="J75">
-        <f t="shared" si="3"/>
+        <f>H75-G75</f>
         <v>0.19699999999999962</v>
       </c>
       <c r="K75">
-        <f t="shared" si="4"/>
+        <f>I75-H75</f>
         <v>0.16200000000000037</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -3310,15 +3317,15 @@
         <v>5.069</v>
       </c>
       <c r="J76">
-        <f t="shared" si="3"/>
+        <f>H76-G76</f>
         <v>0.21200000000000063</v>
       </c>
       <c r="K76">
-        <f t="shared" si="4"/>
+        <f>I76-H76</f>
         <v>0.20599999999999952</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -3347,15 +3354,15 @@
         <v>5.9530000000000003</v>
       </c>
       <c r="J77">
-        <f t="shared" si="3"/>
+        <f>H77-G77</f>
         <v>0.12699999999999978</v>
       </c>
       <c r="K77">
-        <f t="shared" si="4"/>
+        <f>I77-H77</f>
         <v>0.12800000000000011</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -3384,15 +3391,15 @@
         <v>21.891999999999999</v>
       </c>
       <c r="J78">
-        <f t="shared" si="3"/>
+        <f>H78-G78</f>
         <v>0.29500000000000171</v>
       </c>
       <c r="K78">
-        <f t="shared" si="4"/>
+        <f>I78-H78</f>
         <v>0.32999999999999829</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -3421,15 +3428,15 @@
         <v>8.7889999999999997</v>
       </c>
       <c r="J79">
-        <f t="shared" si="3"/>
+        <f>H79-G79</f>
         <v>5.4999999999999716E-2</v>
       </c>
       <c r="K79">
-        <f t="shared" si="4"/>
+        <f>I79-H79</f>
         <v>7.1999999999999176E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -3458,15 +3465,15 @@
         <v>5.149</v>
       </c>
       <c r="J80">
-        <f t="shared" si="3"/>
+        <f>H80-G80</f>
         <v>8.9000000000000412E-2</v>
       </c>
       <c r="K80">
-        <f t="shared" si="4"/>
+        <f>I80-H80</f>
         <v>0.12399999999999967</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>38</v>
       </c>
@@ -3492,15 +3499,15 @@
         <v>5.7720000000000002</v>
       </c>
       <c r="J81">
-        <f t="shared" si="3"/>
+        <f>H81-G81</f>
         <v>5.6139999999999999</v>
       </c>
       <c r="K81">
-        <f t="shared" si="4"/>
+        <f>I81-H81</f>
         <v>0.15800000000000036</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>38</v>
       </c>
@@ -3529,15 +3536,15 @@
         <v>42.021999999999998</v>
       </c>
       <c r="J82">
-        <f t="shared" si="3"/>
+        <f>H82-G82</f>
         <v>0.71399999999999864</v>
       </c>
       <c r="K82">
-        <f t="shared" si="4"/>
+        <f>I82-H82</f>
         <v>0.65699999999999648</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -3563,15 +3570,15 @@
         <v>12.742000000000001</v>
       </c>
       <c r="J83">
-        <f t="shared" si="3"/>
+        <f>H83-G83</f>
         <v>12.347</v>
       </c>
       <c r="K83">
-        <f t="shared" si="4"/>
+        <f>I83-H83</f>
         <v>0.39500000000000135</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>38</v>
       </c>
@@ -3600,15 +3607,15 @@
         <v>3.7519999999999998</v>
       </c>
       <c r="J84">
-        <f t="shared" si="3"/>
+        <f>H84-G84</f>
         <v>0.10099999999999998</v>
       </c>
       <c r="K84">
-        <f t="shared" si="4"/>
+        <f>I84-H84</f>
         <v>0.13099999999999978</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>38</v>
       </c>
@@ -3637,15 +3644,15 @@
         <v>6.0430000000000001</v>
       </c>
       <c r="J85">
-        <f t="shared" si="3"/>
+        <f>H85-G85</f>
         <v>0.17799999999999994</v>
       </c>
       <c r="K85">
-        <f t="shared" si="4"/>
+        <f>I85-H85</f>
         <v>0.19700000000000006</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -3674,15 +3681,15 @@
         <v>12.814</v>
       </c>
       <c r="J86">
-        <f t="shared" si="3"/>
+        <f>H86-G86</f>
         <v>0.29199999999999982</v>
       </c>
       <c r="K86">
-        <f t="shared" si="4"/>
+        <f>I86-H86</f>
         <v>0.30799999999999983</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>38</v>
       </c>
@@ -3711,15 +3718,15 @@
         <v>10.581</v>
       </c>
       <c r="J87">
-        <f t="shared" si="3"/>
+        <f>H87-G87</f>
         <v>0.27199999999999847</v>
       </c>
       <c r="K87">
-        <f t="shared" si="4"/>
+        <f>I87-H87</f>
         <v>0.25900000000000034</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>38</v>
       </c>
@@ -3748,15 +3755,15 @@
         <v>9.3249999999999993</v>
       </c>
       <c r="J88">
-        <f t="shared" si="3"/>
+        <f>H88-G88</f>
         <v>0.15399999999999991</v>
       </c>
       <c r="K88">
-        <f t="shared" si="4"/>
+        <f>I88-H88</f>
         <v>0.18299999999999983</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>38</v>
       </c>
@@ -3785,15 +3792,15 @@
         <v>14.957000000000001</v>
       </c>
       <c r="J89">
-        <f t="shared" si="3"/>
+        <f>H89-G89</f>
         <v>0.31600000000000072</v>
       </c>
       <c r="K89">
-        <f t="shared" si="4"/>
+        <f>I89-H89</f>
         <v>0.34299999999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -3822,15 +3829,15 @@
         <v>2.2690000000000001</v>
       </c>
       <c r="J90">
-        <f t="shared" si="3"/>
+        <f>H90-G90</f>
         <v>7.2999999999999954E-2</v>
       </c>
       <c r="K90">
-        <f t="shared" si="4"/>
+        <f>I90-H90</f>
         <v>8.4000000000000075E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>38</v>
       </c>
@@ -3859,15 +3866,15 @@
         <v>2.883</v>
       </c>
       <c r="J91">
-        <f t="shared" si="3"/>
+        <f>H91-G91</f>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="K91">
-        <f t="shared" si="4"/>
+        <f>I91-H91</f>
         <v>7.6000000000000068E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>38</v>
       </c>
@@ -3896,15 +3903,15 @@
         <v>2.9889999999999999</v>
       </c>
       <c r="J92">
-        <f t="shared" si="3"/>
+        <f>H92-G92</f>
         <v>0.10400000000000009</v>
       </c>
       <c r="K92">
-        <f t="shared" si="4"/>
+        <f>I92-H92</f>
         <v>0.10899999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>38</v>
       </c>
@@ -3933,18 +3940,18 @@
         <v>3.2320000000000002</v>
       </c>
       <c r="J93">
-        <f t="shared" si="3"/>
+        <f>H93-G93</f>
         <v>9.0999999999999748E-2</v>
       </c>
       <c r="K93">
-        <f t="shared" si="4"/>
+        <f>I93-H93</f>
         <v>0.10500000000000043</v>
       </c>
       <c r="L93" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>38</v>
       </c>
@@ -3973,15 +3980,15 @@
         <v>36.494999999999997</v>
       </c>
       <c r="J94">
-        <f t="shared" si="3"/>
+        <f>H94-G94</f>
         <v>0.58799999999999386</v>
       </c>
       <c r="K94">
-        <f t="shared" si="4"/>
+        <f>I94-H94</f>
         <v>0.51200000000000045</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>38</v>
       </c>
@@ -4010,15 +4017,15 @@
         <v>9.6880000000000006</v>
       </c>
       <c r="J95">
-        <f t="shared" si="3"/>
+        <f>H95-G95</f>
         <v>0.25</v>
       </c>
       <c r="K95">
-        <f t="shared" si="4"/>
+        <f>I95-H95</f>
         <v>0.3230000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>38</v>
       </c>
@@ -4029,10 +4036,10 @@
         <v>20</v>
       </c>
       <c r="D96">
+        <v>15.5</v>
+      </c>
+      <c r="E96">
         <v>14.5</v>
-      </c>
-      <c r="E96">
-        <v>15.5</v>
       </c>
       <c r="F96">
         <v>11.3</v>
@@ -4047,15 +4054,15 @@
         <v>4.0110000000000001</v>
       </c>
       <c r="J96">
-        <f t="shared" si="3"/>
+        <f>H96-G96</f>
         <v>8.8000000000000078E-2</v>
       </c>
       <c r="K96">
-        <f t="shared" si="4"/>
+        <f>I96-H96</f>
         <v>0.1120000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>38</v>
       </c>
@@ -4084,15 +4091,15 @@
         <v>10.647</v>
       </c>
       <c r="J97">
-        <f t="shared" si="3"/>
+        <f>H97-G97</f>
         <v>9.2999999999999972E-2</v>
       </c>
       <c r="K97">
-        <f t="shared" si="4"/>
+        <f>I97-H97</f>
         <v>0.10200000000000031</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>38</v>
       </c>
@@ -4121,15 +4128,15 @@
         <v>7.5369999999999999</v>
       </c>
       <c r="J98">
-        <f t="shared" si="3"/>
+        <f>H98-G98</f>
         <v>0.10799999999999965</v>
       </c>
       <c r="K98">
-        <f t="shared" si="4"/>
+        <f>I98-H98</f>
         <v>0.15200000000000014</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>38</v>
       </c>
@@ -4158,15 +4165,15 @@
         <v>3.4159999999999999</v>
       </c>
       <c r="J99">
-        <f t="shared" si="3"/>
+        <f>H99-G99</f>
         <v>0.12199999999999989</v>
       </c>
       <c r="K99">
-        <f t="shared" si="4"/>
+        <f>I99-H99</f>
         <v>0.1419999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>38</v>
       </c>
@@ -4195,15 +4202,15 @@
         <v>8.9649999999999999</v>
       </c>
       <c r="J100">
-        <f t="shared" si="3"/>
+        <f>H100-G100</f>
         <v>5.4999999999999716E-2</v>
       </c>
       <c r="K100">
-        <f t="shared" si="4"/>
+        <f>I100-H100</f>
         <v>6.0000000000000497E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>38</v>
       </c>
@@ -4232,15 +4239,15 @@
         <v>6.1230000000000002</v>
       </c>
       <c r="J101">
-        <f t="shared" si="3"/>
+        <f>H101-G101</f>
         <v>0.10600000000000076</v>
       </c>
       <c r="K101">
-        <f t="shared" si="4"/>
+        <f>I101-H101</f>
         <v>0.13499999999999979</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>38</v>
       </c>
@@ -4269,15 +4276,15 @@
         <v>20.137</v>
       </c>
       <c r="J102">
-        <f t="shared" si="3"/>
+        <f>H102-G102</f>
         <v>0.14299999999999713</v>
       </c>
       <c r="K102">
-        <f t="shared" si="4"/>
+        <f>I102-H102</f>
         <v>0.24000000000000199</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>38</v>
       </c>
@@ -4306,15 +4313,15 @@
         <v>11.823</v>
       </c>
       <c r="J103">
-        <f t="shared" si="3"/>
+        <f>H103-G103</f>
         <v>0.36099999999999888</v>
       </c>
       <c r="K103">
-        <f t="shared" si="4"/>
+        <f>I103-H103</f>
         <v>0.30900000000000105</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>38</v>
       </c>
@@ -4343,15 +4350,15 @@
         <v>4.3029999999999999</v>
       </c>
       <c r="J104">
-        <f t="shared" si="3"/>
+        <f>H104-G104</f>
         <v>5.9000000000000163E-2</v>
       </c>
       <c r="K104">
-        <f t="shared" si="4"/>
+        <f>I104-H104</f>
         <v>7.299999999999951E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>38</v>
       </c>
@@ -4380,15 +4387,15 @@
         <v>8.8089999999999993</v>
       </c>
       <c r="J105">
-        <f t="shared" si="3"/>
+        <f>H105-G105</f>
         <v>9.1999999999998749E-2</v>
       </c>
       <c r="K105">
-        <f t="shared" si="4"/>
+        <f>I105-H105</f>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>38</v>
       </c>
@@ -4417,15 +4424,15 @@
         <v>9.7840000000000007</v>
       </c>
       <c r="J106">
-        <f t="shared" si="3"/>
+        <f>H106-G106</f>
         <v>0.20899999999999963</v>
       </c>
       <c r="K106">
-        <f t="shared" si="4"/>
+        <f>I106-H106</f>
         <v>0.21600000000000108</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>38</v>
       </c>
@@ -4454,15 +4461,15 @@
         <v>19.065999999999999</v>
       </c>
       <c r="J107">
-        <f t="shared" si="3"/>
+        <f>H107-G107</f>
         <v>0.3940000000000019</v>
       </c>
       <c r="K107">
-        <f t="shared" si="4"/>
+        <f>I107-H107</f>
         <v>0.37099999999999866</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>38</v>
       </c>
@@ -4495,11 +4502,11 @@
         <v>0.12800000000000011</v>
       </c>
       <c r="K108">
-        <f t="shared" si="4"/>
+        <f>I108-H108</f>
         <v>0.17300000000000004</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>38</v>
       </c>
@@ -4510,10 +4517,10 @@
         <v>33</v>
       </c>
       <c r="D109">
+        <v>23.3</v>
+      </c>
+      <c r="E109">
         <v>23.1</v>
-      </c>
-      <c r="E109">
-        <v>23.3</v>
       </c>
       <c r="F109">
         <v>12.8</v>
@@ -4528,15 +4535,15 @@
         <v>6.5410000000000004</v>
       </c>
       <c r="J109">
-        <f t="shared" si="3"/>
+        <f>H109-G109</f>
         <v>0.23500000000000032</v>
       </c>
       <c r="K109">
-        <f t="shared" si="4"/>
+        <f>I109-H109</f>
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>38</v>
       </c>
@@ -4565,15 +4572,15 @@
         <v>3.16</v>
       </c>
       <c r="J110">
-        <f t="shared" si="3"/>
+        <f>H110-G110</f>
         <v>9.7999999999999865E-2</v>
       </c>
       <c r="K110">
-        <f t="shared" si="4"/>
+        <f>I110-H110</f>
         <v>0.10700000000000021</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>38</v>
       </c>
@@ -4602,15 +4609,15 @@
         <v>14.836</v>
       </c>
       <c r="J111">
-        <f t="shared" si="3"/>
+        <f>H111-G111</f>
         <v>0.1899999999999995</v>
       </c>
       <c r="K111">
-        <f t="shared" si="4"/>
+        <f>I111-H111</f>
         <v>0.21700000000000053</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>38</v>
       </c>
@@ -4639,15 +4646,15 @@
         <v>12.305</v>
       </c>
       <c r="J112">
-        <f t="shared" si="3"/>
+        <f>H112-G112</f>
         <v>0.1590000000000007</v>
       </c>
       <c r="K112">
-        <f t="shared" si="4"/>
+        <f>I112-H112</f>
         <v>0.1169999999999991</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>38</v>
       </c>
@@ -4676,15 +4683,15 @@
         <v>4.6849999999999996</v>
       </c>
       <c r="J113">
-        <f t="shared" si="3"/>
+        <f>H113-G113</f>
         <v>0.19000000000000039</v>
       </c>
       <c r="K113">
-        <f t="shared" si="4"/>
+        <f>I113-H113</f>
         <v>0.17399999999999949</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>38</v>
       </c>
@@ -4695,10 +4702,10 @@
         <v>38</v>
       </c>
       <c r="D114">
+        <v>17.2</v>
+      </c>
+      <c r="E114">
         <v>16.7</v>
-      </c>
-      <c r="E114">
-        <v>17.2</v>
       </c>
       <c r="F114">
         <v>10</v>
@@ -4713,15 +4720,15 @@
         <v>2.488</v>
       </c>
       <c r="J114">
-        <f t="shared" si="3"/>
+        <f>H114-G114</f>
         <v>6.999999999999984E-2</v>
       </c>
       <c r="K114">
-        <f t="shared" si="4"/>
+        <f>I114-H114</f>
         <v>9.2999999999999972E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>38</v>
       </c>
@@ -4750,19 +4757,43 @@
         <v>9.7050000000000001</v>
       </c>
       <c r="J115">
-        <f t="shared" si="3"/>
+        <f>H115-G115</f>
         <v>0.25300000000000011</v>
       </c>
       <c r="K115">
-        <f t="shared" si="4"/>
+        <f>I115-H115</f>
         <v>0.25500000000000078</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J86">
-    <sortCondition ref="B2:B86"/>
-    <sortCondition descending="1" ref="A2:A86"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L120">
+    <sortCondition ref="A2:A120"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE6EC86-7A55-4887-8FBC-8148D3EA3A17}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>